--- a/2021/January/All Deails/26.01.2021/MCBank Statement Jan-2021.xlsx
+++ b/2021/January/All Deails/26.01.2021/MCBank Statement Jan-2021.xlsx
@@ -3035,6 +3035,24 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3062,12 +3080,6 @@
     <xf numFmtId="1" fontId="39" fillId="35" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3078,18 +3090,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="39" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3255,7 +3255,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3267,7 +3267,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3290,14 +3290,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3385,7 +3385,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3397,7 +3397,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3420,14 +3420,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3459,7 +3459,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3471,7 +3471,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3494,14 +3494,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -5018,73 +5018,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="288" t="s">
+      <c r="A1" s="294" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="288"/>
-      <c r="C1" s="288"/>
-      <c r="D1" s="288"/>
-      <c r="E1" s="288"/>
-      <c r="F1" s="288"/>
-      <c r="G1" s="288"/>
-      <c r="H1" s="288"/>
-      <c r="I1" s="288"/>
-      <c r="J1" s="288"/>
-      <c r="K1" s="288"/>
-      <c r="L1" s="288"/>
-      <c r="M1" s="288"/>
-      <c r="N1" s="288"/>
-      <c r="O1" s="288"/>
-      <c r="P1" s="288"/>
-      <c r="Q1" s="288"/>
-      <c r="R1" s="288"/>
-      <c r="S1" s="288"/>
+      <c r="B1" s="294"/>
+      <c r="C1" s="294"/>
+      <c r="D1" s="294"/>
+      <c r="E1" s="294"/>
+      <c r="F1" s="294"/>
+      <c r="G1" s="294"/>
+      <c r="H1" s="294"/>
+      <c r="I1" s="294"/>
+      <c r="J1" s="294"/>
+      <c r="K1" s="294"/>
+      <c r="L1" s="294"/>
+      <c r="M1" s="294"/>
+      <c r="N1" s="294"/>
+      <c r="O1" s="294"/>
+      <c r="P1" s="294"/>
+      <c r="Q1" s="294"/>
+      <c r="R1" s="294"/>
+      <c r="S1" s="294"/>
     </row>
     <row r="2" spans="1:26" s="200" customFormat="1" ht="18">
-      <c r="A2" s="289" t="s">
+      <c r="A2" s="295" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="289"/>
-      <c r="C2" s="289"/>
-      <c r="D2" s="289"/>
-      <c r="E2" s="289"/>
-      <c r="F2" s="289"/>
-      <c r="G2" s="289"/>
-      <c r="H2" s="289"/>
-      <c r="I2" s="289"/>
-      <c r="J2" s="289"/>
-      <c r="K2" s="289"/>
-      <c r="L2" s="289"/>
-      <c r="M2" s="289"/>
-      <c r="N2" s="289"/>
-      <c r="O2" s="289"/>
-      <c r="P2" s="289"/>
-      <c r="Q2" s="289"/>
-      <c r="R2" s="289"/>
-      <c r="S2" s="289"/>
+      <c r="B2" s="295"/>
+      <c r="C2" s="295"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
+      <c r="J2" s="295"/>
+      <c r="K2" s="295"/>
+      <c r="L2" s="295"/>
+      <c r="M2" s="295"/>
+      <c r="N2" s="295"/>
+      <c r="O2" s="295"/>
+      <c r="P2" s="295"/>
+      <c r="Q2" s="295"/>
+      <c r="R2" s="295"/>
+      <c r="S2" s="295"/>
     </row>
     <row r="3" spans="1:26" s="201" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="290" t="s">
+      <c r="A3" s="296" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="291"/>
-      <c r="C3" s="291"/>
-      <c r="D3" s="291"/>
-      <c r="E3" s="291"/>
-      <c r="F3" s="291"/>
-      <c r="G3" s="291"/>
-      <c r="H3" s="291"/>
-      <c r="I3" s="291"/>
-      <c r="J3" s="291"/>
-      <c r="K3" s="291"/>
-      <c r="L3" s="291"/>
-      <c r="M3" s="291"/>
-      <c r="N3" s="291"/>
-      <c r="O3" s="291"/>
-      <c r="P3" s="291"/>
-      <c r="Q3" s="291"/>
-      <c r="R3" s="291"/>
-      <c r="S3" s="292"/>
+      <c r="B3" s="297"/>
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="297"/>
+      <c r="H3" s="297"/>
+      <c r="I3" s="297"/>
+      <c r="J3" s="297"/>
+      <c r="K3" s="297"/>
+      <c r="L3" s="297"/>
+      <c r="M3" s="297"/>
+      <c r="N3" s="297"/>
+      <c r="O3" s="297"/>
+      <c r="P3" s="297"/>
+      <c r="Q3" s="297"/>
+      <c r="R3" s="297"/>
+      <c r="S3" s="298"/>
       <c r="U3" s="115"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
@@ -5093,58 +5093,58 @@
       <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="1:26" s="203" customFormat="1">
-      <c r="A4" s="293" t="s">
+      <c r="A4" s="299" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="295" t="s">
+      <c r="B4" s="301" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="297" t="s">
+      <c r="C4" s="288" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="297" t="s">
+      <c r="D4" s="288" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="297" t="s">
+      <c r="E4" s="288" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="297" t="s">
+      <c r="F4" s="288" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="297" t="s">
+      <c r="G4" s="288" t="s">
         <v>102</v>
       </c>
-      <c r="H4" s="297" t="s">
+      <c r="H4" s="288" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="297" t="s">
+      <c r="I4" s="288" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="297" t="s">
+      <c r="J4" s="288" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="297" t="s">
+      <c r="K4" s="288" t="s">
         <v>105</v>
       </c>
-      <c r="L4" s="297" t="s">
+      <c r="L4" s="288" t="s">
         <v>106</v>
       </c>
-      <c r="M4" s="297" t="s">
+      <c r="M4" s="288" t="s">
         <v>107</v>
       </c>
-      <c r="N4" s="297" t="s">
+      <c r="N4" s="288" t="s">
         <v>108</v>
       </c>
-      <c r="O4" s="303" t="s">
+      <c r="O4" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="P4" s="305" t="s">
+      <c r="P4" s="292" t="s">
         <v>109</v>
       </c>
-      <c r="Q4" s="301" t="s">
+      <c r="Q4" s="305" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="299" t="s">
+      <c r="R4" s="303" t="s">
         <v>110</v>
       </c>
       <c r="S4" s="202" t="s">
@@ -5157,24 +5157,24 @@
       <c r="Y4" s="205"/>
     </row>
     <row r="5" spans="1:26" s="203" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="294"/>
-      <c r="B5" s="296"/>
-      <c r="C5" s="298"/>
-      <c r="D5" s="298"/>
-      <c r="E5" s="298"/>
-      <c r="F5" s="298"/>
-      <c r="G5" s="298"/>
-      <c r="H5" s="298"/>
-      <c r="I5" s="298"/>
-      <c r="J5" s="298"/>
-      <c r="K5" s="298"/>
-      <c r="L5" s="298"/>
-      <c r="M5" s="298"/>
-      <c r="N5" s="298"/>
-      <c r="O5" s="304"/>
-      <c r="P5" s="306"/>
-      <c r="Q5" s="302"/>
-      <c r="R5" s="300"/>
+      <c r="A5" s="300"/>
+      <c r="B5" s="302"/>
+      <c r="C5" s="289"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="289"/>
+      <c r="J5" s="289"/>
+      <c r="K5" s="289"/>
+      <c r="L5" s="289"/>
+      <c r="M5" s="289"/>
+      <c r="N5" s="289"/>
+      <c r="O5" s="291"/>
+      <c r="P5" s="293"/>
+      <c r="Q5" s="306"/>
+      <c r="R5" s="304"/>
       <c r="S5" s="207" t="s">
         <v>111</v>
       </c>
@@ -8413,11 +8413,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -8434,6 +8429,11 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20047,7 +20047,7 @@
   <dimension ref="A1:AC222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E23"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
